--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinid223\Dropbox\Drive\Université\Hivers 2017\Processus concurrents et parallélisme - IFT630\TP\Projet\ProjectBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinid223\Documents\Dropbox\Drive\Université\Hivers 2017\Processus concurrents et parallélisme - IFT630\TP\Projet\ProjectBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>14h30</t>
   </si>
@@ -33,6 +33,30 @@
   </si>
   <si>
     <t>Début de la configuration du projet qui consiste a créer le répertoire Git ainsi que de créer la solution Visual Studio du projet. Pour commencer dans le projet, j'ai définit une interface de base ainsi qu'une classe principal qui va servir de gestion des threads d'un backup. J'ai ensuite défénit chacune des classes nécessaire au threading du backup : FileWatch qui ferait la gestion de surveillange d'un répertoire, FileDiffEvaluator qui permet de déterminer si la différence est suffisante pour faire une nouvelle copie et FIleCopy qui permet de faire la copie selon les paramètres de l'application</t>
+  </si>
+  <si>
+    <t>18h00</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Heure Début</t>
+  </si>
+  <si>
+    <t>Heure Fin</t>
+  </si>
+  <si>
+    <t>Temps total (minutes)</t>
+  </si>
+  <si>
+    <t>Description du travail</t>
+  </si>
+  <si>
+    <t>23h00</t>
+  </si>
+  <si>
+    <t>Création de l'objet de backup et défénition complete de l'affichage des informations du backup. Ajout de la validation des informations du backup. Ajout d'une fenêtre de création de backup. Modelisation de l'affichage général</t>
   </si>
 </sst>
 </file>
@@ -68,11 +92,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -388,79 +418,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O11"/>
+  <dimension ref="B2:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>42811</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -469,40 +565,112 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>42822</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H3:O11"/>
+  <mergeCells count="3">
+    <mergeCell ref="H9:U13"/>
+    <mergeCell ref="H3:U7"/>
+    <mergeCell ref="H2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>14h30</t>
   </si>
@@ -53,10 +53,19 @@
     <t>Description du travail</t>
   </si>
   <si>
-    <t>23h00</t>
-  </si>
-  <si>
     <t>Création de l'objet de backup et défénition complete de l'affichage des informations du backup. Ajout de la validation des informations du backup. Ajout d'une fenêtre de création de backup. Modelisation de l'affichage général</t>
+  </si>
+  <si>
+    <t>Total en minutes:</t>
+  </si>
+  <si>
+    <t>Total en heures</t>
+  </si>
+  <si>
+    <t>Temps restant</t>
+  </si>
+  <si>
+    <t>22h30</t>
   </si>
 </sst>
 </file>
@@ -418,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U13"/>
+  <dimension ref="B2:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,9 +439,12 @@
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -461,8 +473,17 @@
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>42811</v>
       </c>
@@ -491,8 +512,20 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="X3">
+        <f>SUM(F3:F196)</f>
+        <v>315</v>
+      </c>
+      <c r="Y3">
+        <f>X3/60</f>
+        <v>5.25</v>
+      </c>
+      <c r="Z3">
+        <f>30-Y3</f>
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -508,7 +541,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -524,7 +557,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -540,7 +573,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -556,7 +589,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -572,7 +605,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>42822</v>
       </c>
@@ -580,13 +613,13 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>270</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="F9">
-        <v>300</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -602,7 +635,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -618,7 +651,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -634,7 +667,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -650,7 +683,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinid223\Documents\Dropbox\Drive\Université\Hivers 2017\Processus concurrents et parallélisme - IFT630\TP\Projet\ProjectBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinid223\Dropbox\Drive\Université\Hivers 2017\Processus concurrents et parallélisme - IFT630\TP\Projet\ProjectBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>14h30</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>22h30</t>
+  </si>
+  <si>
+    <t>12h30</t>
+  </si>
+  <si>
+    <t>13h15</t>
+  </si>
+  <si>
+    <t>Implémentation simple du watcher</t>
   </si>
 </sst>
 </file>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z13"/>
+  <dimension ref="B2:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,15 +523,15 @@
       <c r="U3" s="3"/>
       <c r="X3">
         <f>SUM(F3:F196)</f>
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="Y3">
         <f>X3/60</f>
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="Z3">
         <f>30-Y3</f>
-        <v>24.75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -699,11 +708,106 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>42824</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>45</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H9:U13"/>
     <mergeCell ref="H3:U7"/>
     <mergeCell ref="H2:U2"/>
+    <mergeCell ref="H15:U19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>14h30</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>Implémentation simple du watcher</t>
+  </si>
+  <si>
+    <t>15h00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implémentation d'un logger pour avoir des informations et feedback plus parlant. Ajout de la copie de fichier selon le changement ainsi que la suppression de fichier lorsqu'il disparait. Ajout de la gestion d'Erreur de fichier. Ajout de la répétition des opérations lorsd'une erreur jusqu'a un nombre de répétition. </t>
   </si>
 </sst>
 </file>
@@ -436,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z19"/>
+  <dimension ref="B2:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="H21" sqref="H21:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,15 +529,15 @@
       <c r="U3" s="3"/>
       <c r="X3">
         <f>SUM(F3:F196)</f>
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="Y3">
         <f>X3/60</f>
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="Z3">
         <f>30-Y3</f>
-        <v>24</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -754,7 +760,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -770,7 +776,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -786,7 +792,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -802,12 +808,107 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>42825</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>150</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H9:U13"/>
     <mergeCell ref="H3:U7"/>
     <mergeCell ref="H2:U2"/>
     <mergeCell ref="H15:U19"/>
+    <mergeCell ref="H21:U25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinid223\Dropbox\Drive\Université\Hivers 2017\Processus concurrents et parallélisme - IFT630\TP\Projet\ProjectBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinid223\Documents\Dropbox\Drive\Université\Hivers 2017\Processus concurrents et parallélisme - IFT630\TP\Projet\ProjectBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>14h30</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t xml:space="preserve">Implémentation d'un logger pour avoir des informations et feedback plus parlant. Ajout de la copie de fichier selon le changement ainsi que la suppression de fichier lorsqu'il disparait. Ajout de la gestion d'Erreur de fichier. Ajout de la répétition des opérations lorsd'une erreur jusqu'a un nombre de répétition. </t>
+  </si>
+  <si>
+    <t>2-avr-17</t>
+  </si>
+  <si>
+    <t>10h30</t>
+  </si>
+  <si>
+    <t>11h30</t>
   </si>
 </sst>
 </file>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z25"/>
+  <dimension ref="B2:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:U25"/>
+      <selection activeCell="H28" sqref="H28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,15 +538,15 @@
       <c r="U3" s="3"/>
       <c r="X3">
         <f>SUM(F3:F196)</f>
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="Y3">
         <f>X3/60</f>
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z3">
         <f>30-Y3</f>
-        <v>21.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -902,6 +911,20 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
     </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="H9:U13"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>14h30</t>
   </si>
@@ -89,7 +89,10 @@
     <t>10h30</t>
   </si>
   <si>
-    <t>11h30</t>
+    <t>11h45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction du buffer du watcher. Implémentation d'une meilleur gestion de lock sur les fichiers. </t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z27"/>
+  <dimension ref="B2:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:I28"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,15 +541,15 @@
       <c r="U3" s="3"/>
       <c r="X3">
         <f>SUM(F3:F196)</f>
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="Y3">
         <f>X3/60</f>
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z3">
         <f>30-Y3</f>
-        <v>20.5</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -922,11 +925,92 @@
         <v>21</v>
       </c>
       <c r="F27">
-        <v>60</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H27:U31"/>
     <mergeCell ref="H9:U13"/>
     <mergeCell ref="H3:U7"/>
     <mergeCell ref="H2:U2"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>14h30</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t xml:space="preserve">Correction du buffer du watcher. Implémentation d'une meilleur gestion de lock sur les fichiers. </t>
+  </si>
+  <si>
+    <t>11h00</t>
+  </si>
+  <si>
+    <t>12h00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de thread pour chaque opérations. </t>
   </si>
 </sst>
 </file>
@@ -454,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z31"/>
+  <dimension ref="B2:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,15 +550,15 @@
       <c r="U3" s="3"/>
       <c r="X3">
         <f>SUM(F3:F196)</f>
-        <v>585</v>
+        <v>645</v>
       </c>
       <c r="Y3">
         <f>X3/60</f>
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="Z3">
         <f>30-Y3</f>
-        <v>20.25</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -1008,8 +1017,103 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
     </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33">
+        <v>60</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="H33:U37"/>
     <mergeCell ref="H27:U31"/>
     <mergeCell ref="H9:U13"/>
     <mergeCell ref="H3:U7"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>14h30</t>
   </si>
@@ -101,7 +101,19 @@
     <t>12h00</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajout de thread pour chaque opérations. </t>
+    <t>3-avr-17</t>
+  </si>
+  <si>
+    <t>9h00</t>
+  </si>
+  <si>
+    <t>13h00</t>
+  </si>
+  <si>
+    <t>Ajout de thread pour chaque opérations. Corrections problème de mass transfert</t>
+  </si>
+  <si>
+    <t>Ajout d'un fichier de configuration xml permettant de garder sur disque la liste des backups pour les charger au démarage de l'application.</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z37"/>
+  <dimension ref="B2:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33:U37"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,15 +562,15 @@
       <c r="U3" s="3"/>
       <c r="X3">
         <f>SUM(F3:F196)</f>
-        <v>645</v>
+        <v>885</v>
       </c>
       <c r="Y3">
         <f>X3/60</f>
-        <v>10.75</v>
+        <v>14.75</v>
       </c>
       <c r="Z3">
         <f>30-Y3</f>
-        <v>19.25</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -1031,7 +1043,7 @@
         <v>60</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -1111,8 +1123,103 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
     </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40">
+        <v>240</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="H40:U44"/>
     <mergeCell ref="H33:U37"/>
     <mergeCell ref="H27:U31"/>
     <mergeCell ref="H9:U13"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinid223\Documents\Dropbox\Drive\Université\Hivers 2017\Processus concurrents et parallélisme - IFT630\TP\Projet\ProjectBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinid223\Dropbox\Drive\Université\Hivers 2017\Processus concurrents et parallélisme - IFT630\TP\Projet\ProjectBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>14h30</t>
   </si>
@@ -113,7 +113,13 @@
     <t>Ajout de thread pour chaque opérations. Corrections problème de mass transfert</t>
   </si>
   <si>
-    <t>Ajout d'un fichier de configuration xml permettant de garder sur disque la liste des backups pour les charger au démarage de l'application.</t>
+    <t>Ajout d'un fichier de configuration xml permettant de garder sur disque la liste des backups pour les charger au démarage de l'application. Ajout de commentaire dans le code.</t>
+  </si>
+  <si>
+    <t>4-avr-17</t>
+  </si>
+  <si>
+    <t>Ajout de la copie parallele de tout un dossier source lors de l'initialisation d'un backup. Correction de problème avec le fichier de configuration. Ajout de la gestion de copier les fichiers change lorsque le programme ou le watcher ne fonctionnait pas.</t>
   </si>
 </sst>
 </file>
@@ -156,10 +162,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z44"/>
+  <dimension ref="B2:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="V39" sqref="V39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,22 +511,22 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
       <c r="X2" t="s">
         <v>10</v>
       </c>
@@ -544,98 +550,98 @@
       <c r="F3">
         <v>45</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
       <c r="X3">
         <f>SUM(F3:F196)</f>
-        <v>885</v>
+        <v>1005</v>
       </c>
       <c r="Y3">
         <f>X3/60</f>
-        <v>14.75</v>
+        <v>16.75</v>
       </c>
       <c r="Z3">
         <f>30-Y3</f>
-        <v>15.25</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
@@ -666,86 +672,86 @@
       <c r="F9">
         <v>270</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -760,86 +766,86 @@
       <c r="F15">
         <v>45</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
@@ -854,86 +860,86 @@
       <c r="F21">
         <v>150</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -948,86 +954,86 @@
       <c r="F27">
         <v>75</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -1042,86 +1048,86 @@
       <c r="F33">
         <v>60</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -1136,97 +1142,192 @@
       <c r="F40">
         <v>240</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>120</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+    </row>
+    <row r="49" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+    </row>
+    <row r="50" spans="8:21" x14ac:dyDescent="0.25">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="H46:U50"/>
+    <mergeCell ref="H2:U2"/>
+    <mergeCell ref="H15:U19"/>
+    <mergeCell ref="H21:U25"/>
     <mergeCell ref="H40:U44"/>
     <mergeCell ref="H33:U37"/>
     <mergeCell ref="H27:U31"/>
     <mergeCell ref="H9:U13"/>
     <mergeCell ref="H3:U7"/>
-    <mergeCell ref="H2:U2"/>
-    <mergeCell ref="H15:U19"/>
-    <mergeCell ref="H21:U25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>14h30</t>
   </si>
@@ -119,7 +119,10 @@
     <t>4-avr-17</t>
   </si>
   <si>
-    <t>Ajout de la copie parallele de tout un dossier source lors de l'initialisation d'un backup. Correction de problème avec le fichier de configuration. Ajout de la gestion de copier les fichiers change lorsque le programme ou le watcher ne fonctionnait pas.</t>
+    <t>13h30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de la copie parallele de tout un dossier source lors de l'initialisation d'un backup. Correction de problème avec le fichier de configuration. Ajout de la gestion de copier les fichiers change lorsque le programme ou le watcher ne fonctionnait pas. Ajout de la gestion du fichier de controle dans le dossier de destination. Correction de certain problèmes. </t>
   </si>
 </sst>
 </file>
@@ -162,10 +165,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +487,7 @@
   <dimension ref="B2:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+      <selection activeCell="H46" sqref="H46:U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,22 +514,22 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
       <c r="X2" t="s">
         <v>10</v>
       </c>
@@ -550,98 +553,98 @@
       <c r="F3">
         <v>45</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
       <c r="X3">
         <f>SUM(F3:F196)</f>
-        <v>1005</v>
+        <v>1065</v>
       </c>
       <c r="Y3">
         <f>X3/60</f>
-        <v>16.75</v>
+        <v>17.75</v>
       </c>
       <c r="Z3">
         <f>30-Y3</f>
-        <v>13.25</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
@@ -672,86 +675,86 @@
       <c r="F9">
         <v>270</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
     </row>
     <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
@@ -766,86 +769,86 @@
       <c r="F15">
         <v>45</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
@@ -860,86 +863,86 @@
       <c r="F21">
         <v>150</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -954,86 +957,86 @@
       <c r="F27">
         <v>75</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -1048,88 +1051,88 @@
       <c r="F33">
         <v>60</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+    </row>
+    <row r="40" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>25</v>
       </c>
@@ -1142,86 +1145,86 @@
       <c r="F40">
         <v>240</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -1231,91 +1234,91 @@
         <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F46">
-        <v>120</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
     </row>
     <row r="49" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
     </row>
     <row r="50" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinid223\Dropbox\Drive\Université\Hivers 2017\Processus concurrents et parallélisme - IFT630\TP\Projet\ProjectBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinid223\Documents\Dropbox\Drive\Université\Hivers 2017\Processus concurrents et parallélisme - IFT630\TP\Projet\ProjectBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>14h30</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t xml:space="preserve">Ajout de la copie parallele de tout un dossier source lors de l'initialisation d'un backup. Correction de problème avec le fichier de configuration. Ajout de la gestion de copier les fichiers change lorsque le programme ou le watcher ne fonctionnait pas. Ajout de la gestion du fichier de controle dans le dossier de destination. Correction de certain problèmes. </t>
+  </si>
+  <si>
+    <t>5-avr-17</t>
+  </si>
+  <si>
+    <t>16h00</t>
+  </si>
+  <si>
+    <t>17h00</t>
+  </si>
+  <si>
+    <t>20h30</t>
+  </si>
+  <si>
+    <t>22h00</t>
+  </si>
+  <si>
+    <t>Finalisation de certain commentaire et restructuration d'appels de certaines méthodes. Début du rapport.</t>
   </si>
 </sst>
 </file>
@@ -484,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z50"/>
+  <dimension ref="B2:Z56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46:U50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,15 +589,15 @@
       <c r="U3" s="3"/>
       <c r="X3">
         <f>SUM(F3:F196)</f>
-        <v>1065</v>
+        <v>1215</v>
       </c>
       <c r="Y3">
         <f>X3/60</f>
-        <v>17.75</v>
+        <v>20.25</v>
       </c>
       <c r="Z3">
         <f>30-Y3</f>
-        <v>12.25</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -1288,7 +1306,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
     </row>
-    <row r="49" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -1304,7 +1322,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
     </row>
-    <row r="50" spans="8:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -1320,8 +1338,112 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
     </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52">
+        <v>60</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53">
+        <v>90</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="H52:U56"/>
     <mergeCell ref="H46:U50"/>
     <mergeCell ref="H2:U2"/>
     <mergeCell ref="H15:U19"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vinid223\Documents\Dropbox\Drive\Université\Hivers 2017\Processus concurrents et parallélisme - IFT630\TP\Projet\ProjectBackup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinid223\Dropbox\Drive\Université\Hivers 2017\Processus concurrents et parallélisme - IFT630\TP\Projet\ProjectBackup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>14h30</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>Finalisation de certain commentaire et restructuration d'appels de certaines méthodes. Début du rapport.</t>
+  </si>
+  <si>
+    <t>6-avr-17</t>
+  </si>
+  <si>
+    <t>14h00</t>
+  </si>
+  <si>
+    <t>Continuité du rapport et changement de certains paramètres de l'application.</t>
   </si>
 </sst>
 </file>
@@ -502,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z56"/>
+  <dimension ref="B2:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="W56" sqref="W56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,15 +598,15 @@
       <c r="U3" s="3"/>
       <c r="X3">
         <f>SUM(F3:F196)</f>
-        <v>1215</v>
+        <v>1305</v>
       </c>
       <c r="Y3">
         <f>X3/60</f>
-        <v>20.25</v>
+        <v>21.75</v>
       </c>
       <c r="Z3">
         <f>30-Y3</f>
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -1441,8 +1450,103 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
     </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>90</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="H58:U62"/>
     <mergeCell ref="H52:U56"/>
     <mergeCell ref="H46:U50"/>
     <mergeCell ref="H2:U2"/>

--- a/TimeSheet.xlsx
+++ b/TimeSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>14h30</t>
   </si>
@@ -150,6 +150,21 @@
   </si>
   <si>
     <t>Continuité du rapport et changement de certains paramètres de l'application.</t>
+  </si>
+  <si>
+    <t>9-avr-17</t>
+  </si>
+  <si>
+    <t>Ajout de la gestion des fichiers supprimé du dossier source lorsque le watcher n'est pas en route. Ajout du traitement en parallèle lors de l'ajout d'une nouvelle sauvegarde et de la réouverture du programme pour faire le traitement en parallèle de chacune des sauvegardes.</t>
+  </si>
+  <si>
+    <t>23h45</t>
+  </si>
+  <si>
+    <t>10-avr-17</t>
+  </si>
+  <si>
+    <t>Verification et tests de performance global. Corrections de certains problèmes. Fin de l'implémentation des boutons play et pause du watcher. Finalisation du document.</t>
   </si>
 </sst>
 </file>
@@ -511,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z62"/>
+  <dimension ref="B2:Z75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="W56" sqref="W56"/>
+    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,15 +613,15 @@
       <c r="U3" s="3"/>
       <c r="X3">
         <f>SUM(F3:F196)</f>
-        <v>1305</v>
+        <v>1500</v>
       </c>
       <c r="Y3">
         <f>X3/60</f>
-        <v>21.75</v>
+        <v>25</v>
       </c>
       <c r="Z3">
         <f>30-Y3</f>
-        <v>8.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
@@ -1544,8 +1559,198 @@
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
     </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65">
+        <v>105</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s">
+        <v>40</v>
+      </c>
+      <c r="F71">
+        <v>90</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="H71:U75"/>
+    <mergeCell ref="H65:U69"/>
     <mergeCell ref="H58:U62"/>
     <mergeCell ref="H52:U56"/>
     <mergeCell ref="H46:U50"/>
